--- a/flyers.xlsx
+++ b/flyers.xlsx
@@ -100,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,12 +126,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15469,7 +15476,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A280" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -22623,8 +22630,8 @@
     <row r="294">
       <c r="A294"/>
     </row>
-    <row r="295">
-      <c r="A295"/>
+    <row r="295" s="3" customFormat="1">
+      <c r="A295" s="3"/>
     </row>
     <row r="296">
       <c r="A296"/>

--- a/flyers.xlsx
+++ b/flyers.xlsx
@@ -15476,7 +15476,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A280" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A244" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15517,6 +15517,13 @@
       <c r="H1">
         <v>21.190000000000001</v>
       </c>
+      <c r="I1" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J1">
+        <f>H1-I1</f>
+        <v>-1.1199999999999974</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -15543,6 +15550,14 @@
       <c r="H2">
         <v>26.149999999999999</v>
       </c>
+      <c r="I2" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>-1.3500000000000014</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -15569,6 +15584,14 @@
       <c r="H3">
         <v>31.120000000000001</v>
       </c>
+      <c r="I3" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J3">
+        <f>H3-I3</f>
+        <v>-1.5800000000000018</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -15595,6 +15618,14 @@
       <c r="H4">
         <v>49.600000000000001</v>
       </c>
+      <c r="I4" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J4">
+        <f>H4-I4</f>
+        <v>-3.2800000000000011</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -15621,6 +15652,14 @@
       <c r="H5">
         <v>51.450000000000003</v>
       </c>
+      <c r="I5" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J5">
+        <f>H5-I5</f>
+        <v>-3.4499999999999957</v>
+      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -15647,6 +15686,14 @@
       <c r="H6">
         <v>55.200000000000003</v>
       </c>
+      <c r="I6" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J6">
+        <f>H6-I6</f>
+        <v>-3.6999999999999957</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -15673,6 +15720,14 @@
       <c r="H7">
         <v>81.400000000000006</v>
       </c>
+      <c r="I7" s="2">
+        <v>87</v>
+      </c>
+      <c r="J7">
+        <f>H7-I7</f>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -15699,6 +15754,14 @@
       <c r="H8">
         <v>97.5</v>
       </c>
+      <c r="I8" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J8">
+        <f>H8-I8</f>
+        <v>-7</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -15725,6 +15788,14 @@
       <c r="H9">
         <v>101.40000000000001</v>
       </c>
+      <c r="I9" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J9">
+        <f>H9-I9</f>
+        <v>-6.8999999999999915</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -15751,6 +15822,14 @@
       <c r="H10">
         <v>120</v>
       </c>
+      <c r="I10" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J10">
+        <f>H10-I10</f>
+        <v>-8.4000000000000057</v>
+      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -15777,6 +15856,14 @@
       <c r="H11">
         <v>138.5</v>
       </c>
+      <c r="I11" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J11">
+        <f>H11-I11</f>
+        <v>-10</v>
+      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -15803,6 +15890,14 @@
       <c r="H12">
         <v>157.19999999999999</v>
       </c>
+      <c r="I12" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J12">
+        <f>H12-I12</f>
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -15829,6 +15924,14 @@
       <c r="H13">
         <v>175</v>
       </c>
+      <c r="I13" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J13">
+        <f>H13-I13</f>
+        <v>-12.599999999999994</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -15855,6 +15958,14 @@
       <c r="H14">
         <v>192.80000000000001</v>
       </c>
+      <c r="I14" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J14">
+        <f>H14-I14</f>
+        <v>-14.399999999999977</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -15881,6 +15992,14 @@
       <c r="H15">
         <v>210.59999999999999</v>
       </c>
+      <c r="I15" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J15">
+        <f>H15-I15</f>
+        <v>-15.300000000000011</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -15907,6 +16026,14 @@
       <c r="H16">
         <v>229</v>
       </c>
+      <c r="I16" s="2">
+        <v>245</v>
+      </c>
+      <c r="J16">
+        <f>H16-I16</f>
+        <v>-16</v>
+      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -15933,6 +16060,14 @@
       <c r="H17">
         <v>316.5</v>
       </c>
+      <c r="I17" s="2">
+        <v>339</v>
+      </c>
+      <c r="J17">
+        <f>H17-I17</f>
+        <v>-22.5</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -15959,6 +16094,14 @@
       <c r="H18">
         <v>402</v>
       </c>
+      <c r="I18" s="2">
+        <v>432</v>
+      </c>
+      <c r="J18">
+        <f>H18-I18</f>
+        <v>-30</v>
+      </c>
+      <c r="K18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -15985,6 +16128,14 @@
       <c r="H19">
         <v>482.5</v>
       </c>
+      <c r="I19" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J19">
+        <f>H19-I19</f>
+        <v>-35</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -16011,6 +16162,14 @@
       <c r="H20">
         <v>564</v>
       </c>
+      <c r="I20" s="2">
+        <v>606</v>
+      </c>
+      <c r="J20">
+        <f>H20-I20</f>
+        <v>-42</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -16037,6 +16196,14 @@
       <c r="H21">
         <v>644</v>
       </c>
+      <c r="I21" s="2">
+        <v>693</v>
+      </c>
+      <c r="J21">
+        <f>H21-I21</f>
+        <v>-49</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -16063,6 +16230,14 @@
       <c r="H22">
         <v>728</v>
       </c>
+      <c r="I22" s="2">
+        <v>780</v>
+      </c>
+      <c r="J22">
+        <f>H22-I22</f>
+        <v>-52</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -16089,6 +16264,14 @@
       <c r="H23">
         <v>805.5</v>
       </c>
+      <c r="I23" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J23">
+        <f>H23-I23</f>
+        <v>-63</v>
+      </c>
+      <c r="K23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -16115,6 +16298,14 @@
       <c r="H24">
         <v>890</v>
       </c>
+      <c r="I24" s="2">
+        <v>955</v>
+      </c>
+      <c r="J24">
+        <f>H24-I24</f>
+        <v>-65</v>
+      </c>
+      <c r="K24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -16141,6 +16332,14 @@
       <c r="H25">
         <v>968</v>
       </c>
+      <c r="I25" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J25">
+        <f>H25-I25</f>
+        <v>-71.5</v>
+      </c>
+      <c r="K25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -16167,6 +16366,14 @@
       <c r="H26">
         <v>1050</v>
       </c>
+      <c r="I26" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J26">
+        <f>H26-I26</f>
+        <v>-78</v>
+      </c>
+      <c r="K26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -16193,6 +16400,14 @@
       <c r="H27">
         <v>1131</v>
       </c>
+      <c r="I27" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J27">
+        <f>H27-I27</f>
+        <v>-84.5</v>
+      </c>
+      <c r="K27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -16219,6 +16434,14 @@
       <c r="H28">
         <v>1211</v>
       </c>
+      <c r="I28" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J28">
+        <f>H28-I28</f>
+        <v>-91</v>
+      </c>
+      <c r="K28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -16245,6 +16468,14 @@
       <c r="H29">
         <v>1297.5</v>
       </c>
+      <c r="I29" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J29">
+        <f>H29-I29</f>
+        <v>-90</v>
+      </c>
+      <c r="K29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -16271,6 +16502,14 @@
       <c r="H30">
         <v>1376</v>
       </c>
+      <c r="I30" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J30">
+        <f>H30-I30</f>
+        <v>-96</v>
+      </c>
+      <c r="K30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -16297,6 +16536,14 @@
       <c r="H31">
         <v>1453.5</v>
       </c>
+      <c r="I31" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J31">
+        <f>H31-I31</f>
+        <v>-110.5</v>
+      </c>
+      <c r="K31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -16323,6 +16570,14 @@
       <c r="H32">
         <v>1539</v>
       </c>
+      <c r="I32" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J32">
+        <f>H32-I32</f>
+        <v>-108</v>
+      </c>
+      <c r="K32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -16349,6 +16604,14 @@
       <c r="H33">
         <v>1615</v>
       </c>
+      <c r="I33" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J33">
+        <f>H33-I33</f>
+        <v>-123.5</v>
+      </c>
+      <c r="K33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -16375,6 +16638,14 @@
       <c r="H34">
         <v>1700</v>
       </c>
+      <c r="I34" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J34">
+        <f>H34-I34</f>
+        <v>-120</v>
+      </c>
+      <c r="K34" s="1"/>
     </row>
     <row r="35">
       <c r="A35"/>
@@ -16410,6 +16681,13 @@
       <c r="H38">
         <v>21.199999999999999</v>
       </c>
+      <c r="I38" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J38" s="2">
+        <f>H38-I38</f>
+        <v>-1.1099999999999994</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -16436,6 +16714,13 @@
       <c r="H39">
         <v>26.18</v>
       </c>
+      <c r="I39" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J39" s="2">
+        <f>H39-I39</f>
+        <v>-1.3200000000000003</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -16462,6 +16747,13 @@
       <c r="H40">
         <v>31.140000000000001</v>
       </c>
+      <c r="I40" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J40" s="2">
+        <f>H40-I40</f>
+        <v>-1.5600000000000023</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -16488,6 +16780,13 @@
       <c r="H41">
         <v>50.530000000000001</v>
       </c>
+      <c r="I41" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J41" s="2">
+        <f>H41-I41</f>
+        <v>-2.3500000000000014</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -16514,6 +16813,13 @@
       <c r="H42">
         <v>52.450000000000003</v>
       </c>
+      <c r="I42" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J42" s="2">
+        <f>H42-I42</f>
+        <v>-2.4499999999999957</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -16540,6 +16846,13 @@
       <c r="H43">
         <v>56.200000000000003</v>
       </c>
+      <c r="I43" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J43" s="2">
+        <f>H43-I43</f>
+        <v>-2.6999999999999957</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -16566,6 +16879,13 @@
       <c r="H44">
         <v>83</v>
       </c>
+      <c r="I44" s="2">
+        <v>87</v>
+      </c>
+      <c r="J44" s="2">
+        <f>H44-I44</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -16592,6 +16912,13 @@
       <c r="H45">
         <v>99.5</v>
       </c>
+      <c r="I45" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J45" s="2">
+        <f>H45-I45</f>
+        <v>-5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -16618,6 +16945,13 @@
       <c r="H46">
         <v>103.2</v>
       </c>
+      <c r="I46" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J46" s="2">
+        <f>H46-I46</f>
+        <v>-5.0999999999999943</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -16644,6 +16978,13 @@
       <c r="H47">
         <v>122.40000000000001</v>
       </c>
+      <c r="I47" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J47" s="2">
+        <f>H47-I47</f>
+        <v>-6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -16670,6 +17011,13 @@
       <c r="H48">
         <v>141.5</v>
       </c>
+      <c r="I48" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J48" s="2">
+        <f>H48-I48</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -16696,6 +17044,13 @@
       <c r="H49">
         <v>160.19999999999999</v>
       </c>
+      <c r="I49" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J49" s="2">
+        <f>H49-I49</f>
+        <v>-8.4000000000000057</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -16722,6 +17077,13 @@
       <c r="H50">
         <v>178.5</v>
       </c>
+      <c r="I50" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J50" s="2">
+        <f>H50-I50</f>
+        <v>-9.0999999999999943</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -16748,6 +17110,13 @@
       <c r="H51">
         <v>196.80000000000001</v>
       </c>
+      <c r="I51" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J51" s="2">
+        <f>H51-I51</f>
+        <v>-10.399999999999977</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -16774,6 +17143,13 @@
       <c r="H52">
         <v>215.09999999999999</v>
       </c>
+      <c r="I52" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J52" s="2">
+        <f>H52-I52</f>
+        <v>-10.800000000000011</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -16800,6 +17176,13 @@
       <c r="H53">
         <v>233</v>
       </c>
+      <c r="I53" s="2">
+        <v>245</v>
+      </c>
+      <c r="J53" s="2">
+        <f>H53-I53</f>
+        <v>-12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -16826,6 +17209,13 @@
       <c r="H54">
         <v>322.5</v>
       </c>
+      <c r="I54" s="2">
+        <v>339</v>
+      </c>
+      <c r="J54" s="2">
+        <f>H54-I54</f>
+        <v>-16.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -16852,6 +17242,13 @@
       <c r="H55">
         <v>410</v>
       </c>
+      <c r="I55" s="2">
+        <v>432</v>
+      </c>
+      <c r="J55" s="2">
+        <f>H55-I55</f>
+        <v>-22</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -16878,6 +17275,13 @@
       <c r="H56">
         <v>492.5</v>
       </c>
+      <c r="I56" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J56" s="2">
+        <f>H56-I56</f>
+        <v>-25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -16904,6 +17308,13 @@
       <c r="H57">
         <v>576</v>
       </c>
+      <c r="I57" s="2">
+        <v>606</v>
+      </c>
+      <c r="J57" s="2">
+        <f>H57-I57</f>
+        <v>-30</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -16930,6 +17341,13 @@
       <c r="H58">
         <v>658</v>
       </c>
+      <c r="I58" s="2">
+        <v>693</v>
+      </c>
+      <c r="J58" s="2">
+        <f>H58-I58</f>
+        <v>-35</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -16956,6 +17374,13 @@
       <c r="H59">
         <v>740</v>
       </c>
+      <c r="I59" s="2">
+        <v>780</v>
+      </c>
+      <c r="J59" s="2">
+        <f>H59-I59</f>
+        <v>-40</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -16982,6 +17407,13 @@
       <c r="H60">
         <v>823.5</v>
       </c>
+      <c r="I60" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J60" s="2">
+        <f>H60-I60</f>
+        <v>-45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -17008,6 +17440,13 @@
       <c r="H61">
         <v>905</v>
       </c>
+      <c r="I61" s="2">
+        <v>955</v>
+      </c>
+      <c r="J61" s="2">
+        <f>H61-I61</f>
+        <v>-50</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -17034,6 +17473,13 @@
       <c r="H62">
         <v>990</v>
       </c>
+      <c r="I62" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J62" s="2">
+        <f>H62-I62</f>
+        <v>-49.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -17060,6 +17506,13 @@
       <c r="H63">
         <v>1068</v>
       </c>
+      <c r="I63" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J63" s="2">
+        <f>H63-I63</f>
+        <v>-60</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -17086,6 +17539,13 @@
       <c r="H64">
         <v>1150.5</v>
       </c>
+      <c r="I64" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J64" s="2">
+        <f>H64-I64</f>
+        <v>-65</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -17112,6 +17572,13 @@
       <c r="H65">
         <v>1239</v>
       </c>
+      <c r="I65" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J65" s="2">
+        <f>H65-I65</f>
+        <v>-63</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -17138,6 +17605,13 @@
       <c r="H66">
         <v>1320</v>
       </c>
+      <c r="I66" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J66" s="2">
+        <f>H66-I66</f>
+        <v>-67.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -17164,6 +17638,13 @@
       <c r="H67">
         <v>1400</v>
       </c>
+      <c r="I67" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J67" s="2">
+        <f>H67-I67</f>
+        <v>-72</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -17190,6 +17671,13 @@
       <c r="H68">
         <v>1487.5</v>
       </c>
+      <c r="I68" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J68" s="2">
+        <f>H68-I68</f>
+        <v>-76.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -17216,6 +17704,13 @@
       <c r="H69">
         <v>1566</v>
       </c>
+      <c r="I69" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J69" s="2">
+        <f>H69-I69</f>
+        <v>-81</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -17242,6 +17737,13 @@
       <c r="H70">
         <v>1653</v>
       </c>
+      <c r="I70" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J70" s="2">
+        <f>H70-I70</f>
+        <v>-85.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -17268,6 +17770,13 @@
       <c r="H71">
         <v>1730</v>
       </c>
+      <c r="I71" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J71" s="2">
+        <f>H71-I71</f>
+        <v>-90</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72"/>
@@ -17303,6 +17812,13 @@
       <c r="H75">
         <v>22.309999999999999</v>
       </c>
+      <c r="I75" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J75" s="2">
+        <f>H75-I75</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -17329,6 +17845,13 @@
       <c r="H76">
         <v>27.5</v>
       </c>
+      <c r="I76" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J76" s="2">
+        <f>H76-I76</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -17355,6 +17878,13 @@
       <c r="H77">
         <v>32.700000000000003</v>
       </c>
+      <c r="I77" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J77" s="2">
+        <f>H77-I77</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -17381,6 +17911,13 @@
       <c r="H78">
         <v>52.880000000000003</v>
       </c>
+      <c r="I78" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J78" s="2">
+        <f>H78-I78</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -17407,6 +17944,13 @@
       <c r="H79">
         <v>54.899999999999999</v>
       </c>
+      <c r="I79" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J79" s="2">
+        <f>H79-I79</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -17433,6 +17977,13 @@
       <c r="H80">
         <v>58.899999999999999</v>
       </c>
+      <c r="I80" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J80" s="2">
+        <f>H80-I80</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -17459,6 +18010,13 @@
       <c r="H81">
         <v>87</v>
       </c>
+      <c r="I81" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" s="2">
+        <f>H81-I81</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -17485,6 +18043,13 @@
       <c r="H82">
         <v>104.5</v>
       </c>
+      <c r="I82" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J82" s="2">
+        <f>H82-I82</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -17511,6 +18076,13 @@
       <c r="H83">
         <v>108.3</v>
       </c>
+      <c r="I83" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J83" s="2">
+        <f>H83-I83</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -17537,6 +18109,13 @@
       <c r="H84">
         <v>128.40000000000001</v>
       </c>
+      <c r="I84" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J84" s="2">
+        <f>H84-I84</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -17563,6 +18142,13 @@
       <c r="H85">
         <v>148.5</v>
       </c>
+      <c r="I85" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J85" s="2">
+        <f>H85-I85</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -17589,6 +18175,13 @@
       <c r="H86">
         <v>168.59999999999999</v>
       </c>
+      <c r="I86" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J86" s="2">
+        <f>H86-I86</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -17615,6 +18208,13 @@
       <c r="H87">
         <v>187.59999999999999</v>
       </c>
+      <c r="I87" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J87" s="2">
+        <f>H87-I87</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -17641,6 +18241,13 @@
       <c r="H88">
         <v>207.19999999999999</v>
       </c>
+      <c r="I88" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J88" s="2">
+        <f>H88-I88</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -17667,6 +18274,13 @@
       <c r="H89">
         <v>225.90000000000001</v>
       </c>
+      <c r="I89" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J89" s="2">
+        <f>H89-I89</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -17693,6 +18307,13 @@
       <c r="H90">
         <v>245</v>
       </c>
+      <c r="I90" s="2">
+        <v>245</v>
+      </c>
+      <c r="J90" s="2">
+        <f>H90-I90</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -17719,6 +18340,13 @@
       <c r="H91">
         <v>339</v>
       </c>
+      <c r="I91" s="2">
+        <v>339</v>
+      </c>
+      <c r="J91" s="2">
+        <f>H91-I91</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -17745,6 +18373,13 @@
       <c r="H92">
         <v>432</v>
       </c>
+      <c r="I92" s="2">
+        <v>432</v>
+      </c>
+      <c r="J92" s="2">
+        <f>H92-I92</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -17771,6 +18406,13 @@
       <c r="H93">
         <v>517.5</v>
       </c>
+      <c r="I93" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J93" s="2">
+        <f>H93-I93</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -17797,6 +18439,13 @@
       <c r="H94">
         <v>606</v>
       </c>
+      <c r="I94" s="2">
+        <v>606</v>
+      </c>
+      <c r="J94" s="2">
+        <f>H94-I94</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -17823,6 +18472,13 @@
       <c r="H95">
         <v>693</v>
       </c>
+      <c r="I95" s="2">
+        <v>693</v>
+      </c>
+      <c r="J95" s="2">
+        <f>H95-I95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -17849,6 +18505,13 @@
       <c r="H96">
         <v>780</v>
       </c>
+      <c r="I96" s="2">
+        <v>780</v>
+      </c>
+      <c r="J96" s="2">
+        <f>H96-I96</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -17875,6 +18538,13 @@
       <c r="H97">
         <v>868.5</v>
       </c>
+      <c r="I97" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J97" s="2">
+        <f>H97-I97</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -17901,6 +18571,13 @@
       <c r="H98">
         <v>955</v>
       </c>
+      <c r="I98" s="2">
+        <v>955</v>
+      </c>
+      <c r="J98" s="2">
+        <f>H98-I98</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -17927,6 +18604,13 @@
       <c r="H99">
         <v>1039.5</v>
       </c>
+      <c r="I99" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J99" s="2">
+        <f>H99-I99</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -17953,6 +18637,13 @@
       <c r="H100">
         <v>1128</v>
       </c>
+      <c r="I100" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J100" s="2">
+        <f>H100-I100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -17979,6 +18670,13 @@
       <c r="H101">
         <v>1215.5</v>
       </c>
+      <c r="I101" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J101" s="2">
+        <f>H101-I101</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -18005,6 +18703,13 @@
       <c r="H102">
         <v>1302</v>
       </c>
+      <c r="I102" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J102" s="2">
+        <f>H102-I102</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -18031,6 +18736,13 @@
       <c r="H103">
         <v>1387.5</v>
       </c>
+      <c r="I103" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J103" s="2">
+        <f>H103-I103</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -18057,6 +18769,13 @@
       <c r="H104">
         <v>1472</v>
       </c>
+      <c r="I104" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J104" s="2">
+        <f>H104-I104</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -18083,6 +18802,13 @@
       <c r="H105">
         <v>1564</v>
       </c>
+      <c r="I105" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J105" s="2">
+        <f>H105-I105</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -18109,6 +18835,13 @@
       <c r="H106">
         <v>1647</v>
       </c>
+      <c r="I106" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J106" s="2">
+        <f>H106-I106</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -18135,6 +18868,13 @@
       <c r="H107">
         <v>1738.5</v>
       </c>
+      <c r="I107" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J107" s="2">
+        <f>H107-I107</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -18161,6 +18901,13 @@
       <c r="H108">
         <v>1820</v>
       </c>
+      <c r="I108" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J108" s="2">
+        <f>H108-I108</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109"/>
@@ -18196,6 +18943,13 @@
       <c r="H112">
         <v>26.25</v>
       </c>
+      <c r="I112" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J112" s="2">
+        <f>H112-I112</f>
+        <v>3.9400000000000013</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -18222,6 +18976,13 @@
       <c r="H113">
         <v>30.68</v>
       </c>
+      <c r="I113" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J113" s="2">
+        <f>H113-I113</f>
+        <v>3.1799999999999997</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
@@ -18248,6 +19009,13 @@
       <c r="H114">
         <v>35.100000000000001</v>
       </c>
+      <c r="I114" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J114" s="2">
+        <f>H114-I114</f>
+        <v>2.3999999999999986</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -18274,6 +19042,13 @@
       <c r="H115">
         <v>56.899999999999999</v>
       </c>
+      <c r="I115" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J115" s="2">
+        <f>H115-I115</f>
+        <v>4.019999999999996</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
@@ -18300,6 +19075,13 @@
       <c r="H116">
         <v>58.899999999999999</v>
       </c>
+      <c r="I116" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J116" s="2">
+        <f>H116-I116</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -18326,6 +19108,13 @@
       <c r="H117">
         <v>62.899999999999999</v>
       </c>
+      <c r="I117" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J117" s="2">
+        <f>H117-I117</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
@@ -18352,6 +19141,13 @@
       <c r="H118">
         <v>92.400000000000006</v>
       </c>
+      <c r="I118" s="2">
+        <v>87</v>
+      </c>
+      <c r="J118" s="2">
+        <f>H118-I118</f>
+        <v>5.4000000000000057</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -18378,6 +19174,13 @@
       <c r="H119">
         <v>111</v>
       </c>
+      <c r="I119" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J119" s="2">
+        <f>H119-I119</f>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
@@ -18404,6 +19207,13 @@
       <c r="H120">
         <v>115.2</v>
       </c>
+      <c r="I120" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J120" s="2">
+        <f>H120-I120</f>
+        <v>6.9000000000000057</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -18430,6 +19240,13 @@
       <c r="H121">
         <v>136</v>
       </c>
+      <c r="I121" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J121" s="2">
+        <f>H121-I121</f>
+        <v>7.5999999999999943</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
@@ -18456,6 +19273,13 @@
       <c r="H122">
         <v>157</v>
       </c>
+      <c r="I122" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J122" s="2">
+        <f>H122-I122</f>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -18482,6 +19306,13 @@
       <c r="H123">
         <v>178.19999999999999</v>
       </c>
+      <c r="I123" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J123" s="2">
+        <f>H123-I123</f>
+        <v>9.5999999999999943</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
@@ -18508,6 +19339,13 @@
       <c r="H124">
         <v>198.09999999999999</v>
       </c>
+      <c r="I124" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J124" s="2">
+        <f>H124-I124</f>
+        <v>10.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -18534,6 +19372,13 @@
       <c r="H125">
         <v>217.59999999999999</v>
       </c>
+      <c r="I125" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J125" s="2">
+        <f>H125-I125</f>
+        <v>10.400000000000006</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
@@ -18560,6 +19405,13 @@
       <c r="H126">
         <v>237.59999999999999</v>
       </c>
+      <c r="I126" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J126" s="2">
+        <f>H126-I126</f>
+        <v>11.699999999999989</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -18586,6 +19438,13 @@
       <c r="H127">
         <v>257</v>
       </c>
+      <c r="I127" s="2">
+        <v>245</v>
+      </c>
+      <c r="J127" s="2">
+        <f>H127-I127</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
@@ -18612,6 +19471,13 @@
       <c r="H128">
         <v>354</v>
       </c>
+      <c r="I128" s="2">
+        <v>339</v>
+      </c>
+      <c r="J128" s="2">
+        <f>H128-I128</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -18638,6 +19504,13 @@
       <c r="H129">
         <v>448</v>
       </c>
+      <c r="I129" s="2">
+        <v>432</v>
+      </c>
+      <c r="J129" s="2">
+        <f>H129-I129</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -18664,6 +19537,13 @@
       <c r="H130">
         <v>540</v>
       </c>
+      <c r="I130" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J130" s="2">
+        <f>H130-I130</f>
+        <v>22.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -18690,6 +19570,13 @@
       <c r="H131">
         <v>630</v>
       </c>
+      <c r="I131" s="2">
+        <v>606</v>
+      </c>
+      <c r="J131" s="2">
+        <f>H131-I131</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
@@ -18716,6 +19603,13 @@
       <c r="H132">
         <v>724.5</v>
       </c>
+      <c r="I132" s="2">
+        <v>693</v>
+      </c>
+      <c r="J132" s="2">
+        <f>H132-I132</f>
+        <v>31.5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -18742,6 +19636,13 @@
       <c r="H133">
         <v>816</v>
       </c>
+      <c r="I133" s="2">
+        <v>780</v>
+      </c>
+      <c r="J133" s="2">
+        <f>H133-I133</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
@@ -18768,6 +19669,13 @@
       <c r="H134">
         <v>904.5</v>
       </c>
+      <c r="I134" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J134" s="2">
+        <f>H134-I134</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -18794,6 +19702,13 @@
       <c r="H135">
         <v>995</v>
       </c>
+      <c r="I135" s="2">
+        <v>955</v>
+      </c>
+      <c r="J135" s="2">
+        <f>H135-I135</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
@@ -18820,6 +19735,13 @@
       <c r="H136">
         <v>1089</v>
       </c>
+      <c r="I136" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J136" s="2">
+        <f>H136-I136</f>
+        <v>49.5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -18846,6 +19768,13 @@
       <c r="H137">
         <v>1182</v>
       </c>
+      <c r="I137" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J137" s="2">
+        <f>H137-I137</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -18872,6 +19801,13 @@
       <c r="H138">
         <v>1274</v>
       </c>
+      <c r="I138" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J138" s="2">
+        <f>H138-I138</f>
+        <v>58.5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -18898,6 +19834,13 @@
       <c r="H139">
         <v>1365</v>
       </c>
+      <c r="I139" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J139" s="2">
+        <f>H139-I139</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
@@ -18924,6 +19867,13 @@
       <c r="H140">
         <v>1455</v>
       </c>
+      <c r="I140" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J140" s="2">
+        <f>H140-I140</f>
+        <v>67.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -18950,6 +19900,13 @@
       <c r="H141">
         <v>1544</v>
       </c>
+      <c r="I141" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J141" s="2">
+        <f>H141-I141</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
@@ -18976,6 +19933,13 @@
       <c r="H142">
         <v>1640.5</v>
       </c>
+      <c r="I142" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J142" s="2">
+        <f>H142-I142</f>
+        <v>76.5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -19002,6 +19966,13 @@
       <c r="H143">
         <v>1728</v>
       </c>
+      <c r="I143" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J143" s="2">
+        <f>H143-I143</f>
+        <v>81</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
@@ -19028,6 +19999,13 @@
       <c r="H144">
         <v>1824</v>
       </c>
+      <c r="I144" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J144" s="2">
+        <f>H144-I144</f>
+        <v>85.5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -19054,6 +20032,13 @@
       <c r="H145">
         <v>1910</v>
       </c>
+      <c r="I145" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J145" s="2">
+        <f>H145-I145</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146"/>
@@ -19089,6 +20074,13 @@
       <c r="H149">
         <v>23.710000000000001</v>
       </c>
+      <c r="I149" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J149" s="2">
+        <f>H149-I149</f>
+        <v>1.4000000000000021</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
@@ -19115,6 +20107,13 @@
       <c r="H150">
         <v>30.359999999999999</v>
       </c>
+      <c r="I150" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J150" s="2">
+        <f>H150-I150</f>
+        <v>2.8599999999999994</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -19141,6 +20140,13 @@
       <c r="H151">
         <v>37</v>
       </c>
+      <c r="I151" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J151" s="2">
+        <f>H151-I151</f>
+        <v>4.2999999999999972</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
@@ -19167,6 +20173,13 @@
       <c r="H152">
         <v>73.5</v>
       </c>
+      <c r="I152" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J152" s="2">
+        <f>H152-I152</f>
+        <v>20.619999999999997</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -19193,6 +20206,13 @@
       <c r="H153">
         <v>77.400000000000006</v>
       </c>
+      <c r="I153" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J153" s="2">
+        <f>H153-I153</f>
+        <v>22.500000000000007</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
@@ -19219,6 +20239,13 @@
       <c r="H154">
         <v>85.200000000000003</v>
       </c>
+      <c r="I154" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J154" s="2">
+        <f>H154-I154</f>
+        <v>26.300000000000004</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -19245,6 +20272,13 @@
       <c r="H155">
         <v>124</v>
       </c>
+      <c r="I155" s="2">
+        <v>87</v>
+      </c>
+      <c r="J155" s="2">
+        <f>H155-I155</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
@@ -19271,6 +20305,13 @@
       <c r="H156">
         <v>154.25</v>
       </c>
+      <c r="I156" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J156" s="2">
+        <f>H156-I156</f>
+        <v>49.75</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -19297,6 +20338,13 @@
       <c r="H157">
         <v>162</v>
       </c>
+      <c r="I157" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J157" s="2">
+        <f>H157-I157</f>
+        <v>53.700000000000003</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
@@ -19323,6 +20371,13 @@
       <c r="H158">
         <v>200</v>
       </c>
+      <c r="I158" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J158" s="2">
+        <f>H158-I158</f>
+        <v>71.599999999999994</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -19349,6 +20404,13 @@
       <c r="H159">
         <v>234</v>
       </c>
+      <c r="I159" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J159" s="2">
+        <f>H159-I159</f>
+        <v>85.5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
@@ -19375,6 +20437,13 @@
       <c r="H160">
         <v>265.80000000000001</v>
       </c>
+      <c r="I160" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J160" s="2">
+        <f>H160-I160</f>
+        <v>97.200000000000017</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -19401,6 +20470,13 @@
       <c r="H161">
         <v>298.19999999999999</v>
       </c>
+      <c r="I161" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J161" s="2">
+        <f>H161-I161</f>
+        <v>110.59999999999999</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -19427,6 +20503,13 @@
       <c r="H162">
         <v>330.39999999999998</v>
       </c>
+      <c r="I162" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J162" s="2">
+        <f>H162-I162</f>
+        <v>123.19999999999999</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -19453,6 +20536,13 @@
       <c r="H163">
         <v>362.69999999999999</v>
       </c>
+      <c r="I163" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J163" s="2">
+        <f>H163-I163</f>
+        <v>136.79999999999998</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -19479,6 +20569,13 @@
       <c r="H164">
         <v>394</v>
       </c>
+      <c r="I164" s="2">
+        <v>245</v>
+      </c>
+      <c r="J164" s="2">
+        <f>H164-I164</f>
+        <v>149</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -19505,6 +20602,13 @@
       <c r="H165">
         <v>549</v>
       </c>
+      <c r="I165" s="2">
+        <v>339</v>
+      </c>
+      <c r="J165" s="2">
+        <f>H165-I165</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
@@ -19531,6 +20635,13 @@
       <c r="H166">
         <v>702</v>
       </c>
+      <c r="I166" s="2">
+        <v>432</v>
+      </c>
+      <c r="J166" s="2">
+        <f>H166-I166</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -19557,6 +20668,13 @@
       <c r="H167">
         <v>857.5</v>
       </c>
+      <c r="I167" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J167" s="2">
+        <f>H167-I167</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
@@ -19583,6 +20701,13 @@
       <c r="H168">
         <v>1011</v>
       </c>
+      <c r="I168" s="2">
+        <v>606</v>
+      </c>
+      <c r="J168" s="2">
+        <f>H168-I168</f>
+        <v>405</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -19609,6 +20734,13 @@
       <c r="H169">
         <v>1165.5</v>
       </c>
+      <c r="I169" s="2">
+        <v>693</v>
+      </c>
+      <c r="J169" s="2">
+        <f>H169-I169</f>
+        <v>472.5</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -19635,6 +20767,13 @@
       <c r="H170">
         <v>1320</v>
       </c>
+      <c r="I170" s="2">
+        <v>780</v>
+      </c>
+      <c r="J170" s="2">
+        <f>H170-I170</f>
+        <v>540</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -19661,6 +20800,13 @@
       <c r="H171">
         <v>1471.5</v>
       </c>
+      <c r="I171" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J171" s="2">
+        <f>H171-I171</f>
+        <v>603</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
@@ -19687,6 +20833,13 @@
       <c r="H172">
         <v>1625</v>
       </c>
+      <c r="I172" s="2">
+        <v>955</v>
+      </c>
+      <c r="J172" s="2">
+        <f>H172-I172</f>
+        <v>670</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -19713,6 +20866,13 @@
       <c r="H173">
         <v>1782</v>
       </c>
+      <c r="I173" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J173" s="2">
+        <f>H173-I173</f>
+        <v>742.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
@@ -19739,6 +20899,13 @@
       <c r="H174">
         <v>1932</v>
       </c>
+      <c r="I174" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J174" s="2">
+        <f>H174-I174</f>
+        <v>804</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -19765,6 +20932,13 @@
       <c r="H175">
         <v>2086.5</v>
       </c>
+      <c r="I175" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J175" s="2">
+        <f>H175-I175</f>
+        <v>871</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
@@ -19791,6 +20965,13 @@
       <c r="H176">
         <v>2240</v>
       </c>
+      <c r="I176" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J176" s="2">
+        <f>H176-I176</f>
+        <v>938</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -19817,6 +20998,13 @@
       <c r="H177">
         <v>2392.5</v>
       </c>
+      <c r="I177" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J177" s="2">
+        <f>H177-I177</f>
+        <v>1005</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
@@ -19843,6 +21031,13 @@
       <c r="H178">
         <v>2552</v>
       </c>
+      <c r="I178" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J178" s="2">
+        <f>H178-I178</f>
+        <v>1080</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -19869,6 +21064,13 @@
       <c r="H179">
         <v>2703</v>
       </c>
+      <c r="I179" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J179" s="2">
+        <f>H179-I179</f>
+        <v>1139</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
@@ -19895,6 +21097,13 @@
       <c r="H180">
         <v>2853</v>
       </c>
+      <c r="I180" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J180" s="2">
+        <f>H180-I180</f>
+        <v>1206</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -19921,6 +21130,13 @@
       <c r="H181">
         <v>3011.5</v>
       </c>
+      <c r="I181" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J181" s="2">
+        <f>H181-I181</f>
+        <v>1273</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
@@ -19947,6 +21163,13 @@
       <c r="H182">
         <v>3170</v>
       </c>
+      <c r="I182" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J182" s="2">
+        <f>H182-I182</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183"/>
@@ -19982,6 +21205,13 @@
       <c r="H186">
         <v>28.239999999999998</v>
       </c>
+      <c r="I186" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J186" s="2">
+        <f>H186-I186</f>
+        <v>5.9299999999999997</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -20008,6 +21238,13 @@
       <c r="H187">
         <v>37.909999999999997</v>
       </c>
+      <c r="I187" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J187" s="2">
+        <f>H187-I187</f>
+        <v>10.409999999999997</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
@@ -20034,6 +21271,13 @@
       <c r="H188">
         <v>47.579999999999998</v>
       </c>
+      <c r="I188" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J188" s="2">
+        <f>H188-I188</f>
+        <v>14.879999999999995</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -20060,6 +21304,13 @@
       <c r="H189">
         <v>90.030000000000001</v>
       </c>
+      <c r="I189" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J189" s="2">
+        <f>H189-I189</f>
+        <v>37.149999999999999</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
@@ -20086,6 +21337,13 @@
       <c r="H190">
         <v>93.950000000000003</v>
       </c>
+      <c r="I190" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J190" s="2">
+        <f>H190-I190</f>
+        <v>39.050000000000004</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -20112,6 +21370,13 @@
       <c r="H191">
         <v>101.7</v>
       </c>
+      <c r="I191" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J191" s="2">
+        <f>H191-I191</f>
+        <v>42.800000000000004</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
@@ -20138,6 +21403,13 @@
       <c r="H192">
         <v>146.40000000000001</v>
       </c>
+      <c r="I192" s="2">
+        <v>87</v>
+      </c>
+      <c r="J192" s="2">
+        <f>H192-I192</f>
+        <v>59.400000000000006</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
@@ -20164,6 +21436,13 @@
       <c r="H193">
         <v>181</v>
       </c>
+      <c r="I193" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J193" s="2">
+        <f>H193-I193</f>
+        <v>76.5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
@@ -20190,6 +21469,13 @@
       <c r="H194">
         <v>188.69999999999999</v>
       </c>
+      <c r="I194" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J194" s="2">
+        <f>H194-I194</f>
+        <v>80.399999999999991</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
@@ -20216,6 +21502,13 @@
       <c r="H195">
         <v>231.19999999999999</v>
       </c>
+      <c r="I195" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J195" s="2">
+        <f>H195-I195</f>
+        <v>102.79999999999998</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
@@ -20242,6 +21535,13 @@
       <c r="H196">
         <v>267</v>
       </c>
+      <c r="I196" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J196" s="2">
+        <f>H196-I196</f>
+        <v>118.5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
@@ -20268,6 +21568,13 @@
       <c r="H197">
         <v>300</v>
       </c>
+      <c r="I197" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J197" s="2">
+        <f>H197-I197</f>
+        <v>131.40000000000001</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
@@ -20294,6 +21601,13 @@
       <c r="H198">
         <v>333.19999999999999</v>
       </c>
+      <c r="I198" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J198" s="2">
+        <f>H198-I198</f>
+        <v>145.59999999999999</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -20320,6 +21634,13 @@
       <c r="H199">
         <v>365.60000000000002</v>
       </c>
+      <c r="I199" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J199" s="2">
+        <f>H199-I199</f>
+        <v>158.40000000000003</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
@@ -20346,6 +21667,13 @@
       <c r="H200">
         <v>398.69999999999999</v>
       </c>
+      <c r="I200" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J200" s="2">
+        <f>H200-I200</f>
+        <v>172.79999999999998</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -20372,6 +21700,13 @@
       <c r="H201">
         <v>432</v>
       </c>
+      <c r="I201" s="2">
+        <v>245</v>
+      </c>
+      <c r="J201" s="2">
+        <f>H201-I201</f>
+        <v>187</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
@@ -20398,6 +21733,13 @@
       <c r="H202">
         <v>588</v>
       </c>
+      <c r="I202" s="2">
+        <v>339</v>
+      </c>
+      <c r="J202" s="2">
+        <f>H202-I202</f>
+        <v>249</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -20424,6 +21766,13 @@
       <c r="H203">
         <v>744</v>
       </c>
+      <c r="I203" s="2">
+        <v>432</v>
+      </c>
+      <c r="J203" s="2">
+        <f>H203-I203</f>
+        <v>312</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -20450,6 +21799,13 @@
       <c r="H204">
         <v>900</v>
       </c>
+      <c r="I204" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J204" s="2">
+        <f>H204-I204</f>
+        <v>382.5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -20476,6 +21832,13 @@
       <c r="H205">
         <v>1056</v>
       </c>
+      <c r="I205" s="2">
+        <v>606</v>
+      </c>
+      <c r="J205" s="2">
+        <f>H205-I205</f>
+        <v>450</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
@@ -20502,6 +21865,13 @@
       <c r="H206">
         <v>1214.5</v>
       </c>
+      <c r="I206" s="2">
+        <v>693</v>
+      </c>
+      <c r="J206" s="2">
+        <f>H206-I206</f>
+        <v>521.5</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -20528,6 +21898,13 @@
       <c r="H207">
         <v>1368</v>
       </c>
+      <c r="I207" s="2">
+        <v>780</v>
+      </c>
+      <c r="J207" s="2">
+        <f>H207-I207</f>
+        <v>588</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -20554,6 +21931,13 @@
       <c r="H208">
         <v>1525.5</v>
       </c>
+      <c r="I208" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J208" s="2">
+        <f>H208-I208</f>
+        <v>657</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -20580,6 +21964,13 @@
       <c r="H209">
         <v>1680</v>
       </c>
+      <c r="I209" s="2">
+        <v>955</v>
+      </c>
+      <c r="J209" s="2">
+        <f>H209-I209</f>
+        <v>725</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
@@ -20606,6 +21997,13 @@
       <c r="H210">
         <v>1837</v>
       </c>
+      <c r="I210" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J210" s="2">
+        <f>H210-I210</f>
+        <v>797.5</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -20632,6 +22030,13 @@
       <c r="H211">
         <v>1992</v>
       </c>
+      <c r="I211" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J211" s="2">
+        <f>H211-I211</f>
+        <v>864</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -20658,6 +22063,13 @@
       <c r="H212">
         <v>2151.5</v>
       </c>
+      <c r="I212" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J212" s="2">
+        <f>H212-I212</f>
+        <v>936</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
@@ -20684,6 +22096,13 @@
       <c r="H213">
         <v>2303</v>
       </c>
+      <c r="I213" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J213" s="2">
+        <f>H213-I213</f>
+        <v>1001</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
@@ -20710,6 +22129,13 @@
       <c r="H214">
         <v>2460</v>
       </c>
+      <c r="I214" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J214" s="2">
+        <f>H214-I214</f>
+        <v>1072.5</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -20736,6 +22162,13 @@
       <c r="H215">
         <v>2616</v>
       </c>
+      <c r="I215" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J215" s="2">
+        <f>H215-I215</f>
+        <v>1144</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -20762,6 +22195,13 @@
       <c r="H216">
         <v>2771</v>
       </c>
+      <c r="I216" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J216" s="2">
+        <f>H216-I216</f>
+        <v>1207</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -20788,6 +22228,13 @@
       <c r="H217">
         <v>2934</v>
       </c>
+      <c r="I217" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J217" s="2">
+        <f>H217-I217</f>
+        <v>1287</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
@@ -20814,6 +22261,13 @@
       <c r="H218">
         <v>3087.5</v>
       </c>
+      <c r="I218" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J218" s="2">
+        <f>H218-I218</f>
+        <v>1349</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -20840,6 +22294,13 @@
       <c r="H219">
         <v>3240</v>
       </c>
+      <c r="I219" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J219" s="2">
+        <f>H219-I219</f>
+        <v>1420</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220"/>
@@ -20875,6 +22336,13 @@
       <c r="H223">
         <v>28.449999999999999</v>
       </c>
+      <c r="I223" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J223" s="2">
+        <f>H223-I223</f>
+        <v>6.1400000000000006</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -20901,6 +22369,13 @@
       <c r="H224">
         <v>36.439999999999998</v>
       </c>
+      <c r="I224" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J224" s="2">
+        <f>H224-I224</f>
+        <v>8.9399999999999977</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -20927,6 +22402,13 @@
       <c r="H225">
         <v>44.420000000000002</v>
       </c>
+      <c r="I225" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J225" s="2">
+        <f>H225-I225</f>
+        <v>11.719999999999999</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
@@ -20953,6 +22435,13 @@
       <c r="H226">
         <v>88.200000000000003</v>
       </c>
+      <c r="I226" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J226" s="2">
+        <f>H226-I226</f>
+        <v>35.32</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -20979,6 +22468,13 @@
       <c r="H227">
         <v>92.900000000000006</v>
       </c>
+      <c r="I227" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J227" s="2">
+        <f>H227-I227</f>
+        <v>38.000000000000007</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -21005,6 +22501,13 @@
       <c r="H228">
         <v>102.3</v>
       </c>
+      <c r="I228" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J228" s="2">
+        <f>H228-I228</f>
+        <v>43.399999999999999</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -21031,6 +22534,13 @@
       <c r="H229">
         <v>148.80000000000001</v>
       </c>
+      <c r="I229" s="2">
+        <v>87</v>
+      </c>
+      <c r="J229" s="2">
+        <f>H229-I229</f>
+        <v>61.800000000000011</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
@@ -21057,6 +22567,13 @@
       <c r="H230">
         <v>185</v>
       </c>
+      <c r="I230" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J230" s="2">
+        <f>H230-I230</f>
+        <v>80.5</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -21083,6 +22600,13 @@
       <c r="H231">
         <v>194.40000000000001</v>
       </c>
+      <c r="I231" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J231" s="2">
+        <f>H231-I231</f>
+        <v>86.100000000000009</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
@@ -21109,6 +22633,13 @@
       <c r="H232">
         <v>240</v>
       </c>
+      <c r="I232" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J232" s="2">
+        <f>H232-I232</f>
+        <v>111.59999999999999</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -21135,6 +22666,13 @@
       <c r="H233">
         <v>280.5</v>
       </c>
+      <c r="I233" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J233" s="2">
+        <f>H233-I233</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
@@ -21161,6 +22699,13 @@
       <c r="H234">
         <v>319.19999999999999</v>
       </c>
+      <c r="I234" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J234" s="2">
+        <f>H234-I234</f>
+        <v>150.59999999999999</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -21187,6 +22732,13 @@
       <c r="H235">
         <v>357.69999999999999</v>
       </c>
+      <c r="I235" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J235" s="2">
+        <f>H235-I235</f>
+        <v>170.09999999999999</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -21213,6 +22765,13 @@
       <c r="H236">
         <v>396</v>
       </c>
+      <c r="I236" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J236" s="2">
+        <f>H236-I236</f>
+        <v>188.80000000000001</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -21239,6 +22798,13 @@
       <c r="H237">
         <v>434.69999999999999</v>
       </c>
+      <c r="I237" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J237" s="2">
+        <f>H237-I237</f>
+        <v>208.79999999999998</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
@@ -21265,6 +22831,13 @@
       <c r="H238">
         <v>473</v>
       </c>
+      <c r="I238" s="2">
+        <v>245</v>
+      </c>
+      <c r="J238" s="2">
+        <f>H238-I238</f>
+        <v>228</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -21291,6 +22864,13 @@
       <c r="H239">
         <v>658.5</v>
       </c>
+      <c r="I239" s="2">
+        <v>339</v>
+      </c>
+      <c r="J239" s="2">
+        <f>H239-I239</f>
+        <v>319.5</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -21317,6 +22897,13 @@
       <c r="H240">
         <v>842</v>
       </c>
+      <c r="I240" s="2">
+        <v>432</v>
+      </c>
+      <c r="J240" s="2">
+        <f>H240-I240</f>
+        <v>410</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -21343,6 +22930,13 @@
       <c r="H241">
         <v>1027.5</v>
       </c>
+      <c r="I241" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J241" s="2">
+        <f>H241-I241</f>
+        <v>510</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -21369,6 +22963,13 @@
       <c r="H242">
         <v>1212</v>
       </c>
+      <c r="I242" s="2">
+        <v>606</v>
+      </c>
+      <c r="J242" s="2">
+        <f>H242-I242</f>
+        <v>606</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -21395,6 +22996,13 @@
       <c r="H243">
         <v>1396.5</v>
       </c>
+      <c r="I243" s="2">
+        <v>693</v>
+      </c>
+      <c r="J243" s="2">
+        <f>H243-I243</f>
+        <v>703.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -21421,6 +23029,13 @@
       <c r="H244">
         <v>1580</v>
       </c>
+      <c r="I244" s="2">
+        <v>780</v>
+      </c>
+      <c r="J244" s="2">
+        <f>H244-I244</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -21447,6 +23062,13 @@
       <c r="H245">
         <v>1768.5</v>
       </c>
+      <c r="I245" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J245" s="2">
+        <f>H245-I245</f>
+        <v>900</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -21473,6 +23095,13 @@
       <c r="H246">
         <v>1950</v>
       </c>
+      <c r="I246" s="2">
+        <v>955</v>
+      </c>
+      <c r="J246" s="2">
+        <f>H246-I246</f>
+        <v>995</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -21499,6 +23128,13 @@
       <c r="H247">
         <v>2134</v>
       </c>
+      <c r="I247" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J247" s="2">
+        <f>H247-I247</f>
+        <v>1094.5</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -21525,6 +23161,13 @@
       <c r="H248">
         <v>2322</v>
       </c>
+      <c r="I248" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J248" s="2">
+        <f>H248-I248</f>
+        <v>1194</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -21551,6 +23194,13 @@
       <c r="H249">
         <v>2502.5</v>
       </c>
+      <c r="I249" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J249" s="2">
+        <f>H249-I249</f>
+        <v>1287</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
@@ -21577,6 +23227,13 @@
       <c r="H250">
         <v>2688</v>
       </c>
+      <c r="I250" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J250" s="2">
+        <f>H250-I250</f>
+        <v>1386</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -21603,6 +23260,13 @@
       <c r="H251">
         <v>2872.5</v>
       </c>
+      <c r="I251" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J251" s="2">
+        <f>H251-I251</f>
+        <v>1485</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -21629,6 +23293,13 @@
       <c r="H252">
         <v>3056</v>
       </c>
+      <c r="I252" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J252" s="2">
+        <f>H252-I252</f>
+        <v>1584</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -21655,6 +23326,13 @@
       <c r="H253">
         <v>3247</v>
       </c>
+      <c r="I253" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J253" s="2">
+        <f>H253-I253</f>
+        <v>1683</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -21681,6 +23359,13 @@
       <c r="H254">
         <v>3429</v>
       </c>
+      <c r="I254" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J254" s="2">
+        <f>H254-I254</f>
+        <v>1782</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -21707,6 +23392,13 @@
       <c r="H255">
         <v>3610</v>
       </c>
+      <c r="I255" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J255" s="2">
+        <f>H255-I255</f>
+        <v>1871.5</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -21733,6 +23425,13 @@
       <c r="H256">
         <v>3800</v>
       </c>
+      <c r="I256" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J256" s="2">
+        <f>H256-I256</f>
+        <v>1980</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257"/>
@@ -21768,6 +23467,13 @@
       <c r="H260">
         <v>29.73</v>
       </c>
+      <c r="I260" s="2">
+        <v>22.309999999999999</v>
+      </c>
+      <c r="J260" s="2">
+        <f>H260-I260</f>
+        <v>7.4200000000000017</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -21794,6 +23500,13 @@
       <c r="H261">
         <v>40.140000000000001</v>
       </c>
+      <c r="I261" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="J261" s="2">
+        <f>H261-I261</f>
+        <v>12.640000000000001</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -21820,6 +23533,13 @@
       <c r="H262">
         <v>50.539999999999999</v>
       </c>
+      <c r="I262" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J262" s="2">
+        <f>H262-I262</f>
+        <v>17.839999999999996</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -21846,6 +23566,13 @@
       <c r="H263">
         <v>98.950000000000003</v>
       </c>
+      <c r="I263" s="2">
+        <v>52.880000000000003</v>
+      </c>
+      <c r="J263" s="2">
+        <f>H263-I263</f>
+        <v>46.07</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -21872,6 +23599,13 @@
       <c r="H264">
         <v>102.84999999999999</v>
       </c>
+      <c r="I264" s="2">
+        <v>54.899999999999999</v>
+      </c>
+      <c r="J264" s="2">
+        <f>H264-I264</f>
+        <v>47.949999999999996</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -21898,6 +23632,13 @@
       <c r="H265">
         <v>110.7</v>
       </c>
+      <c r="I265" s="2">
+        <v>58.899999999999999</v>
+      </c>
+      <c r="J265" s="2">
+        <f>H265-I265</f>
+        <v>51.800000000000004</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -21924,6 +23665,13 @@
       <c r="H266">
         <v>164.19999999999999</v>
       </c>
+      <c r="I266" s="2">
+        <v>87</v>
+      </c>
+      <c r="J266" s="2">
+        <f>H266-I266</f>
+        <v>77.199999999999989</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -21950,6 +23698,13 @@
       <c r="H267">
         <v>207.75</v>
       </c>
+      <c r="I267" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="J267" s="2">
+        <f>H267-I267</f>
+        <v>103.25</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -21976,6 +23731,13 @@
       <c r="H268">
         <v>215.40000000000001</v>
       </c>
+      <c r="I268" s="2">
+        <v>108.3</v>
+      </c>
+      <c r="J268" s="2">
+        <f>H268-I268</f>
+        <v>107.10000000000001</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -22002,6 +23764,13 @@
       <c r="H269">
         <v>266.80000000000001</v>
       </c>
+      <c r="I269" s="2">
+        <v>128.40000000000001</v>
+      </c>
+      <c r="J269" s="2">
+        <f>H269-I269</f>
+        <v>138.40000000000001</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
@@ -22028,6 +23797,13 @@
       <c r="H270">
         <v>311.5</v>
       </c>
+      <c r="I270" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="J270" s="2">
+        <f>H270-I270</f>
+        <v>163</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -22054,6 +23830,13 @@
       <c r="H271">
         <v>353.39999999999998</v>
       </c>
+      <c r="I271" s="2">
+        <v>168.59999999999999</v>
+      </c>
+      <c r="J271" s="2">
+        <f>H271-I271</f>
+        <v>184.79999999999998</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -22080,6 +23863,13 @@
       <c r="H272">
         <v>395.5</v>
       </c>
+      <c r="I272" s="2">
+        <v>187.59999999999999</v>
+      </c>
+      <c r="J272" s="2">
+        <f>H272-I272</f>
+        <v>207.90000000000001</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -22106,6 +23896,13 @@
       <c r="H273">
         <v>437.60000000000002</v>
       </c>
+      <c r="I273" s="2">
+        <v>207.19999999999999</v>
+      </c>
+      <c r="J273" s="2">
+        <f>H273-I273</f>
+        <v>230.40000000000003</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -22132,6 +23929,13 @@
       <c r="H274">
         <v>478.80000000000001</v>
       </c>
+      <c r="I274" s="2">
+        <v>225.90000000000001</v>
+      </c>
+      <c r="J274" s="2">
+        <f>H274-I274</f>
+        <v>252.90000000000001</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -22158,6 +23962,13 @@
       <c r="H275">
         <v>521</v>
       </c>
+      <c r="I275" s="2">
+        <v>245</v>
+      </c>
+      <c r="J275" s="2">
+        <f>H275-I275</f>
+        <v>276</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -22184,6 +23995,13 @@
       <c r="H276">
         <v>721.5</v>
       </c>
+      <c r="I276" s="2">
+        <v>339</v>
+      </c>
+      <c r="J276" s="2">
+        <f>H276-I276</f>
+        <v>382.5</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -22210,6 +24028,13 @@
       <c r="H277">
         <v>922</v>
       </c>
+      <c r="I277" s="2">
+        <v>432</v>
+      </c>
+      <c r="J277" s="2">
+        <f>H277-I277</f>
+        <v>490</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -22236,6 +24061,13 @@
       <c r="H278">
         <v>1122.5</v>
       </c>
+      <c r="I278" s="2">
+        <v>517.5</v>
+      </c>
+      <c r="J278" s="2">
+        <f>H278-I278</f>
+        <v>605</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -22262,6 +24094,13 @@
       <c r="H279">
         <v>1323</v>
       </c>
+      <c r="I279" s="2">
+        <v>606</v>
+      </c>
+      <c r="J279" s="2">
+        <f>H279-I279</f>
+        <v>717</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -22288,6 +24127,13 @@
       <c r="H280">
         <v>1526</v>
       </c>
+      <c r="I280" s="2">
+        <v>693</v>
+      </c>
+      <c r="J280" s="2">
+        <f>H280-I280</f>
+        <v>833</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -22314,6 +24160,13 @@
       <c r="H281">
         <v>1724</v>
       </c>
+      <c r="I281" s="2">
+        <v>780</v>
+      </c>
+      <c r="J281" s="2">
+        <f>H281-I281</f>
+        <v>944</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
@@ -22340,6 +24193,13 @@
       <c r="H282">
         <v>1926</v>
       </c>
+      <c r="I282" s="2">
+        <v>868.5</v>
+      </c>
+      <c r="J282" s="2">
+        <f>H282-I282</f>
+        <v>1057.5</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -22366,6 +24226,13 @@
       <c r="H283">
         <v>2125</v>
       </c>
+      <c r="I283" s="2">
+        <v>955</v>
+      </c>
+      <c r="J283" s="2">
+        <f>H283-I283</f>
+        <v>1170</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -22392,6 +24259,13 @@
       <c r="H284">
         <v>2326.5</v>
       </c>
+      <c r="I284" s="2">
+        <v>1039.5</v>
+      </c>
+      <c r="J284" s="2">
+        <f>H284-I284</f>
+        <v>1287</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -22418,6 +24292,13 @@
       <c r="H285">
         <v>2532</v>
       </c>
+      <c r="I285" s="2">
+        <v>1128</v>
+      </c>
+      <c r="J285" s="2">
+        <f>H285-I285</f>
+        <v>1404</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -22444,6 +24325,13 @@
       <c r="H286">
         <v>2730</v>
       </c>
+      <c r="I286" s="2">
+        <v>1215.5</v>
+      </c>
+      <c r="J286" s="2">
+        <f>H286-I286</f>
+        <v>1514.5</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -22470,6 +24358,13 @@
       <c r="H287">
         <v>2933</v>
       </c>
+      <c r="I287" s="2">
+        <v>1302</v>
+      </c>
+      <c r="J287" s="2">
+        <f>H287-I287</f>
+        <v>1631</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -22496,6 +24391,13 @@
       <c r="H288">
         <v>3135</v>
       </c>
+      <c r="I288" s="2">
+        <v>1387.5</v>
+      </c>
+      <c r="J288" s="2">
+        <f>H288-I288</f>
+        <v>1747.5</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -22522,6 +24424,13 @@
       <c r="H289">
         <v>3336</v>
       </c>
+      <c r="I289" s="2">
+        <v>1472</v>
+      </c>
+      <c r="J289" s="2">
+        <f>H289-I289</f>
+        <v>1864</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
@@ -22548,6 +24457,13 @@
       <c r="H290">
         <v>3536</v>
       </c>
+      <c r="I290" s="2">
+        <v>1564</v>
+      </c>
+      <c r="J290" s="2">
+        <f>H290-I290</f>
+        <v>1972</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -22574,6 +24490,13 @@
       <c r="H291">
         <v>3735</v>
       </c>
+      <c r="I291" s="2">
+        <v>1647</v>
+      </c>
+      <c r="J291" s="2">
+        <f>H291-I291</f>
+        <v>2088</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -22600,6 +24523,13 @@
       <c r="H292">
         <v>3933</v>
       </c>
+      <c r="I292" s="2">
+        <v>1738.5</v>
+      </c>
+      <c r="J292" s="2">
+        <f>H292-I292</f>
+        <v>2194.5</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -22625,6 +24555,13 @@
       </c>
       <c r="H293">
         <v>4140</v>
+      </c>
+      <c r="I293" s="2">
+        <v>1820</v>
+      </c>
+      <c r="J293" s="2">
+        <f>H293-I293</f>
+        <v>2320</v>
       </c>
     </row>
     <row r="294">
